--- a/data/Male/07_HG_24_Graduate_Student.xlsx
+++ b/data/Male/07_HG_24_Graduate_Student.xlsx
@@ -24,11 +24,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -279,102 +279,102 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -394,47 +394,47 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>6.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>6.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>6.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>6.0</v>
       </c>
     </row>
@@ -454,302 +454,302 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>4.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>5.0</v>
       </c>
     </row>
